--- a/back_end/Informacao.xlsx
+++ b/back_end/Informacao.xlsx
@@ -11,18 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>inic</t>
+    <t>date</t>
   </si>
   <si>
-    <t>fim</t>
-  </si>
-  <si>
-    <t>inichum</t>
-  </si>
-  <si>
-    <t>fimhum</t>
+    <t>value</t>
   </si>
   <si>
     <t>vinha</t>
@@ -34,34 +28,19 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>2009-06-29 21:08:59</t>
+    <t>2009-06-29</t>
   </si>
   <si>
-    <t>91</t>
+    <t>87</t>
   </si>
   <si>
-    <t>Vinha do Laranjal</t>
+    <t>Vinha da Maçã</t>
   </si>
   <si>
-    <t>Perto da Fonte</t>
+    <t>Longe da Laranjeira</t>
   </si>
   <si>
-    <t>Períodos de Humidade</t>
-  </si>
-  <si>
-    <t>2009-06-29 21:38:59</t>
-  </si>
-  <si>
-    <t>2009-06-29 23:38:59</t>
-  </si>
-  <si>
-    <t>52</t>
-  </si>
-  <si>
-    <t>92</t>
-  </si>
-  <si>
-    <t>2009-06-30 23:15:59</t>
+    <t>Evapotranspiracao</t>
   </si>
 </sst>
 </file>
@@ -101,13 +80,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:5">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -123,22 +102,16 @@
       <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>7</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>8</v>
       </c>
       <c r="D2" s="0" t="s">
         <v>8</v>
@@ -146,58 +119,6 @@
       <c r="E2" s="0" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>11</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/back_end/Informacao.xlsx
+++ b/back_end/Informacao.xlsx
@@ -11,13 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>vinha</t>
   </si>
@@ -28,19 +22,13 @@
     <t>tipo</t>
   </si>
   <si>
-    <t>2009-06-29</t>
+    <t>Vinha do laranjal</t>
   </si>
   <si>
-    <t>87</t>
+    <t>Po norte</t>
   </si>
   <si>
-    <t>Vinha da Maçã</t>
-  </si>
-  <si>
-    <t>Longe da Laranjeira</t>
-  </si>
-  <si>
-    <t>Evapotranspiracao</t>
+    <t>ETP</t>
   </si>
 </sst>
 </file>
@@ -80,13 +68,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:3">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -96,28 +84,16 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="0" t="s">
+      <c r="C2" s="0" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/back_end/Informacao.xlsx
+++ b/back_end/Informacao.xlsx
@@ -11,24 +11,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
-    <t>vinha</t>
+    <t>Inicio</t>
   </si>
   <si>
-    <t>modulo</t>
+    <t>Fim</t>
   </si>
   <si>
-    <t>tipo</t>
+    <t>Vinha</t>
   </si>
   <si>
-    <t>Vinha do laranjal</t>
+    <t>Estação</t>
   </si>
   <si>
-    <t>Po norte</t>
+    <t>Tipo</t>
   </si>
   <si>
-    <t>ETP</t>
+    <t>2020-10-27 0:25:10</t>
+  </si>
+  <si>
+    <t>Vinha da Maçã</t>
+  </si>
+  <si>
+    <t>Ao pe do Rio</t>
+  </si>
+  <si>
+    <t>Períodos de Humectacção</t>
   </si>
 </sst>
 </file>
@@ -68,13 +77,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="0" t="s">
         <v>0</v>
       </c>
@@ -84,16 +93,28 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="0" t="s">
+      <c r="D1" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="E1" s="0" t="s">
         <v>4</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="0" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>5</v>
+      </c>
       <c r="C2" s="0" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
